--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raduc\Desktop\vvss\Tasks\Tasks\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC5A4C4-4F91-4487-9D38-6787B2CAF513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EF081F-ECF0-4F6A-A050-2642E245B584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="636" windowWidth="17280" windowHeight="8964" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
   <si>
     <t>do not print this form</t>
   </si>
@@ -174,15 +174,6 @@
     <t>A02</t>
   </si>
   <si>
-    <t>Împărțirea pe pachete la nivel de aplicație nu este consistentă, pachetul de Repository lipsind. De asemenea, clasa Notificator ar putea fi inclusă într-un nou pachet, utils.</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>Confrom diagramei, în clasa Task nu există câmpul descriere, astfel că utilizatorul nu va putea verifica toate informațiile unui Task =&gt; cerințele nu sunt îndeplinite.</t>
-  </si>
-  <si>
     <t>A04</t>
   </si>
   <si>
@@ -198,9 +189,6 @@
     <t>A06</t>
   </si>
   <si>
-    <t>Ca și design patterns, considerăm a fi utilă încorporarea în cadrul aplicației a următoarelor: Singleton, Repository. Observer este deja utilizat.</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -372,19 +360,50 @@
     <t>obj == null</t>
   </si>
   <si>
-    <t>Effort to perform dynamic code analysis (hours): 0.5</t>
+    <t>Ca și design patterns, considerăm a fi utilă încorporarea în cadrul aplicației a următoarelor: Singleton, Factory, Repository. Observer este deja utilizat.</t>
+  </si>
+  <si>
+    <t>R01, R03</t>
+  </si>
+  <si>
+    <t>Aplicatia emite notificari (reminders) cand un task trebuie executat, dar acest lucru nu e mentionat deloc in cerinte.</t>
+  </si>
+  <si>
+    <t>Împărțirea pe pachete la nivel de aplicație nu este consistentă, pachetul de Repository lipsind. De asemenea, clasa Notificator ar putea fi inclusă într-un nou pachet, utils. Pachetul model ar trebui sa contina doar clasele din domeniul problemei.</t>
+  </si>
+  <si>
+    <t>several</t>
+  </si>
+  <si>
+    <t>Cognitive complexity too high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complicated branching conditions (multiple and, or operations) </t>
+  </si>
+  <si>
+    <t>reducing the complexity would have involved too much refactoring; we decided to leave things as they were, especially since there are relatively few methods with high cognitive complexity</t>
+  </si>
+  <si>
+    <t>Effort to perform dynamic code analysis (hours): 1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,92 +577,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,7 +977,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -975,19 +998,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
         <v>3</v>
@@ -1011,10 +1034,10 @@
       <c r="C4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1029,10 +1052,10 @@
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1044,19 +1067,19 @@
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="8" t="s">
@@ -1172,13 +1195,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" ht="43.2">
       <c r="B18" s="4">
         <v>9</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4">
@@ -1271,7 +1298,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1290,19 +1317,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
         <v>3</v>
@@ -1326,10 +1353,10 @@
       <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1344,10 +1371,10 @@
       <c r="C5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1359,19 +1386,19 @@
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="8" t="s">
@@ -1399,7 +1426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="57.6">
+    <row r="11" spans="1:10" ht="86.4">
       <c r="B11" s="4">
         <f>B10+1</f>
         <v>2</v>
@@ -1409,116 +1436,109 @@
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="57.6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="4">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="4">
-        <f t="shared" si="0"/>
+        <f>B12+1</f>
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="57.6">
+      <c r="B14" s="4">
+        <f>B13+1</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="35" t="s">
-        <v>53</v>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57.6">
       <c r="B15" s="4">
-        <f t="shared" si="0"/>
+        <f>B14+1</f>
         <v>6</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2">
+      <c r="B16" s="4">
+        <f>B15+1</f>
+        <v>7</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="57.6">
-      <c r="B16" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="43.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="57.6">
       <c r="B17" s="4">
-        <f t="shared" si="0"/>
+        <f>B16+1</f>
         <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="57.6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="43.2">
       <c r="B18" s="4">
-        <f t="shared" si="0"/>
+        <f>B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="43.2">
+      <c r="C18" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="4">
-        <f t="shared" si="0"/>
+        <f>B18+1</f>
         <v>10</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="35" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="4">
-        <f t="shared" si="0"/>
+        <f>B19+1</f>
         <v>11</v>
       </c>
       <c r="C20" s="9"/>
@@ -1612,7 +1632,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1633,19 +1653,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
         <v>3</v>
@@ -1659,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>7</v>
@@ -1669,15 +1689,15 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28"/>
+      <c r="D4" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="33"/>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>7</v>
@@ -1687,10 +1707,10 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="30"/>
+      <c r="D5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="35"/>
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1702,10 +1722,10 @@
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="24"/>
+      <c r="D6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="6" t="s">
@@ -1714,7 +1734,7 @@
       <c r="D7" s="32">
         <v>43906</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="8" t="s">
@@ -1734,12 +1754,12 @@
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>81</v>
+      <c r="C10" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="33" t="s">
-        <v>75</v>
+      <c r="E10" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6">
@@ -1747,12 +1767,12 @@
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>73</v>
+      <c r="C11" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="33" t="s">
-        <v>76</v>
+      <c r="E11" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="86.4">
@@ -1761,11 +1781,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="33" t="s">
-        <v>82</v>
+      <c r="E12" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1773,12 +1793,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>77</v>
+      <c r="C13" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="33" t="s">
-        <v>78</v>
+      <c r="E13" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1963,8 +1983,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1985,19 +2005,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
         <v>3</v>
@@ -2010,28 +2030,28 @@
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="33"/>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="36" t="s">
+      <c r="I4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2039,10 +2059,10 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="24"/>
+      <c r="D5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="23"/>
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
@@ -2057,40 +2077,40 @@
       <c r="D6" s="32">
         <v>43906</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.2">
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>87</v>
+      <c r="C10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2">
@@ -2098,17 +2118,17 @@
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>91</v>
+      <c r="C11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2">
@@ -2116,17 +2136,17 @@
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>95</v>
+      <c r="C12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2">
@@ -2134,17 +2154,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>99</v>
+      <c r="C13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.2">
@@ -2152,17 +2172,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>103</v>
+      <c r="C14" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57.6">
@@ -2170,17 +2190,17 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>106</v>
+      <c r="E15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8">
@@ -2188,17 +2208,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>108</v>
+      <c r="C16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="43.2">
@@ -2206,158 +2226,166 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="C17" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="172.8">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="C18" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="2:6">
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="C32" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="12"/>
     </row>
   </sheetData>
